--- a/【小轮子】/【20180803】/sun_week_young.xlsx
+++ b/【小轮子】/【20180803】/sun_week_young.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\study\2018暑假\智能汽车课题组\For Weijian_20180704\代码\【小轮子】\【20180803】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E331447A-AF9C-4A40-80E9-36BE35849BDE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A0ED31-8D53-45E3-868E-CBE0494DBB0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6015" xr2:uid="{34C6B215-53BA-4072-9C9A-722A6774F43E}"/>
   </bookViews>
@@ -383,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5B6E13-8992-44E9-9DCB-E7A0EBB19B78}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E156"/>
+      <selection sqref="A1:E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -818,7 +818,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -937,7 +937,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -971,13 +971,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -988,13 +988,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>3</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0.5714285714285714</v>
+        <v>0.2</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0.83333333333333337</v>
+        <v>0.6</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0.6</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1277,13 +1277,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1294,13 +1294,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>0.42857142857142855</v>
+        <v>1.2</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1328,13 +1328,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
         <v>0.14285714285714285</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0.42857142857142855</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>0.2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1405,15 +1405,15 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>1.3333333333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1422,15 +1422,15 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>0.83333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="B64">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1476,35 +1476,35 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B65">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
         <v>0.16666666666666666</v>
-      </c>
-      <c r="B65">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C65">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1515,19 +1515,19 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1538,18 +1538,18 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>1</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>0.25</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>0.16666666666666666</v>
+        <v>2</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1719,13 +1719,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
         <v>0.33333333333333331</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -1991,16 +1991,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2008,16 +2008,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2042,13 +2042,13 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2059,16 +2059,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99">
-        <v>0.2857142857142857</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="D99">
-        <v>0.14285714285714285</v>
+        <v>0</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2076,16 +2076,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>0.25</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>1.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>0.33333333333333331</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2161,41 +2161,41 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
       <c r="C105">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D106">
         <v>0</v>
       </c>
       <c r="E106">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2204,15 +2204,15 @@
         <v>0</v>
       </c>
       <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
         <v>0.5</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2331,13 +2331,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -2467,16 +2467,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
         <v>0.5</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -2654,16 +2654,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
+        <v>0.8</v>
+      </c>
+      <c r="B134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
         <v>0.2</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2722,13 +2722,13 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -2739,13 +2739,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -2773,13 +2773,13 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -2790,16 +2790,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="B142">
         <v>0</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D142">
-        <v>0.16666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -2807,16 +2807,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
       <c r="C143">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -2824,13 +2824,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="B144">
         <v>0</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -2870,12 +2870,12 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -2887,12 +2887,12 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>0.42857142857142855</v>
+        <v>0.4</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -2904,12 +2904,12 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>0.42857142857142855</v>
+        <v>0</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -3028,18 +3028,35 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157">
         <v>0.5</v>
       </c>
-      <c r="B156">
-        <v>0</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156">
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
         <v>0</v>
       </c>
     </row>
